--- a/Anforderungen_ueberarbeitet.xlsx
+++ b/Anforderungen_ueberarbeitet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihans\Downloads\x-share-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20160" windowHeight="7740"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="20160" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="160">
   <si>
     <t>Produkt verleihen</t>
   </si>
@@ -67,12 +72,6 @@
     <t>Informationen über Benutzer erhalten</t>
   </si>
   <si>
-    <t>Kontaktinformationen austauschen</t>
-  </si>
-  <si>
-    <t>Anfrage erstellen</t>
-  </si>
-  <si>
     <t>Status anzeigen</t>
   </si>
   <si>
@@ -85,9 +84,6 @@
     <t>Standort bestimmen</t>
   </si>
   <si>
-    <t>Beschreibung anzeigen</t>
-  </si>
-  <si>
     <t>zur Merkliste hinzufügen</t>
   </si>
   <si>
@@ -106,9 +102,6 @@
     <t>Aktionspunkte anzeigen</t>
   </si>
   <si>
-    <t>Benutzerinformationen anzeigen</t>
-  </si>
-  <si>
     <t>Benutzer suchen</t>
   </si>
   <si>
@@ -133,18 +126,9 @@
     <t>allgemeine Einstellungen</t>
   </si>
   <si>
-    <t>Login über Facebook</t>
-  </si>
-  <si>
-    <t>Login über Google+</t>
-  </si>
-  <si>
     <t>Erstellen eines Accounts</t>
   </si>
   <si>
-    <t>Login über Email</t>
-  </si>
-  <si>
     <t>AGB</t>
   </si>
   <si>
@@ -202,135 +186,27 @@
     <t>must-be</t>
   </si>
   <si>
-    <t>Gegenstände zum Verleih freigeben</t>
-  </si>
-  <si>
-    <t>Gegenstände eintragen die man verleihen möchte. Die Gegenstände können beschrieben werden, Bilder hinzugefügt werden und eine Ausleihdauer bestimmt werden.</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>Gegenstand in eine Kategorie (z.B. Kleidung) einordnen</t>
-  </si>
-  <si>
-    <t>Aus einer vorgegebenen Liste von Kategorien eine Kategorie auswählen, die zu dem Gegenstand, der verliehen wird, passt.</t>
-  </si>
-  <si>
-    <t>Verfügbaren Gegenstände können ausgeliehen werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ein verfügbarer Gegenstand kann zum Ausleihen ausgewählt werden. Der Ausleiher bekommt darauf hin eine Anfrage, dass diese Person diesen Gegenstand ausleihen möchte. Der Ausleiher kann die Anfrage annehmen oder ablehnen. Bei positiver bestätigung bekommt die Person die Daten des Ausleihers. </t>
-  </si>
-  <si>
     <t>Must-be</t>
   </si>
   <si>
-    <t>Nach einem bestimmten Gegenstand kann gesucht werden</t>
-  </si>
-  <si>
-    <t>Den Name des Gegenstands, den man ausleihen möchte, kann man in ein Suchfeld eingeben und dann danach Suchen. Gegenstände in der nähe mit ähnlichen Namen werden darauf hin angezeigt</t>
-  </si>
-  <si>
     <t>Nice-to-have</t>
   </si>
   <si>
     <t>Nach einem Benutzer kann gesucht werden</t>
   </si>
   <si>
-    <t>Den Namen eines Benutzer kann in ein Suchfeld eingegeben werden und anschließend danach gesucht werden. Benutzer mit ähnlichen Namen werden angezeigt. Bei Auswahl eines Benutzer, wird das Profil angezeigt.</t>
-  </si>
-  <si>
     <t>nice-to-have</t>
   </si>
   <si>
-    <t>Mängel, die ein Gegenstand hat, können bei der Beschreibung des Gegenstandes eingegeben werden</t>
-  </si>
-  <si>
-    <t>Auf der Seite des Gegenstandes können vom Verleiher und Personen, die den Gegenstand kürzlich ausgeliehen haben in einem extra Feld angegeben werden.</t>
-  </si>
-  <si>
-    <t>Anzeige ob Produkt verfügbar oder nicht</t>
-  </si>
-  <si>
-    <t>Als Ausleihender möchte ich eine Statusanzeige um zu erkennen ob der gewünscht Gegenstand verfügbar ist. Als Verleihender möchte ich eine Statusanzeige um Dinge die ich zurzeit selbst benötige vom Verleih auszuschließen</t>
-  </si>
-  <si>
-    <t>Anzeige der Restzeit bis Produkt wieder verfügbar</t>
-  </si>
-  <si>
-    <t>Aus Ausleihender möchte ich eine Restzeitanzeige um zu wissen wann ein Gegendstand wieder zum Verleih bereit steht</t>
-  </si>
-  <si>
-    <t>Bei jedem Gegendstand soll ein Feld verfügbar sein ob und wieviel Kaution verlangt wird</t>
-  </si>
-  <si>
-    <t>Aus Verleihender möchte ich für höherwertige Gegenstände eine Kaution verlangen können</t>
-  </si>
-  <si>
     <t>Nachrichtenaustausch zwischen Verleihenden und Ausleihenden</t>
   </si>
   <si>
-    <t>Als Verleihender und Ausleihender möchten wir Nachrichten zur Verleihung austauschen</t>
-  </si>
-  <si>
-    <t>Die Anwendung ermöglicht den Login mit einem Facebook-Account</t>
-  </si>
-  <si>
-    <t>Die Anwendung ermöglicht den Login mit einem Google-Account</t>
-  </si>
-  <si>
-    <t>Der nutzer bekommt nachrichten über Artikeln.</t>
-  </si>
-  <si>
-    <t>Ich möchte benachrichtigt werden, wenn die Artikel, die ich ausleihen möchte frei gestaltet wird.</t>
-  </si>
-  <si>
-    <t>Für die zukünftige Ausleihen kann man markieren, was er vor hat auszuleihen</t>
-  </si>
-  <si>
-    <t>Ich möchte nicht vergessen was ich in den kommenden Tagen/Wochen brauche, deswegen soll ich in der Lage sein dass ich die Artikel mir schon vorher merken kann.</t>
-  </si>
-  <si>
-    <t>Suche nach Artikeln basierend auf Lokation</t>
-  </si>
-  <si>
-    <t>Wenn ich was aus-/verleihen möchte, möchte ich nicht bundesweit fahren. Ich möchte nur in meiner Umgebung was aus-/verleihen.</t>
-  </si>
-  <si>
-    <t>Der Verleiher wird durch Geo Location lokaliziert.</t>
-  </si>
-  <si>
-    <t>ich möchte wissen, wie ich den Verleiher erreichen kann, falls ich die Artikel von ihm/ihr direkt abholen muss.</t>
-  </si>
-  <si>
     <t>Bewerten von Nutzern im Hinblick auf Verlässlichkeit und Ablauf einer Transaktion</t>
   </si>
   <si>
-    <t>Als Nutzer möchte ich andere Benutzer bewerten und deren Bewertung einsehen können um eine Entscheidung bezüglich einer Transaktion mit diesem Nutzer fällen zu können</t>
-  </si>
-  <si>
-    <t>Persönliche Informationen eines Nutzers</t>
-  </si>
-  <si>
-    <t>Unangemessene Produkte an das Admin-Team zur Überprüfung melden</t>
-  </si>
-  <si>
-    <t>Als Nutzer möchte ich Produkte melden können, die illegal sind oder sinnlos sind</t>
-  </si>
-  <si>
-    <t>Nutzer melden, der im Verdacht steht, die Verhaltensrichtlinien nicht eingehalten zu haben</t>
-  </si>
-  <si>
-    <t>Als Nutzer möchte ich Benutzer melden können, um im Falle eines Verstoßes gegen den Verhaltenskodex diesen Nutzer bestrafen zu lassen, damit alle ein positives Erlebnis mit der Anwendung haben</t>
-  </si>
-  <si>
-    <t>Zu jedem auszuleihenden Produkt ein Bild hinzufügen</t>
-  </si>
-  <si>
-    <t>Als Nutzer möchte ich jedem Produkt das ich verleihe ein oder mehrere Bilder hinzufügen um den anderen Benutzern eine bessere Vorstellung des Gegenstandes zu ermöglichen</t>
-  </si>
-  <si>
     <t>Zeigt die AGB</t>
   </si>
   <si>
@@ -376,9 +252,6 @@
     <t>Als Nutzer möchte ich, dass ich die Sprache in der die Oberfläche angezeigt wird frei wählbar ist.</t>
   </si>
   <si>
-    <t>Bearbeiter</t>
-  </si>
-  <si>
     <t>Kategorisierung eingeben</t>
   </si>
   <si>
@@ -391,45 +264,12 @@
     <t>Standortangabe eingeben</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>Cihan</t>
-  </si>
-  <si>
-    <t>Steffen</t>
-  </si>
-  <si>
-    <t>Christine</t>
-  </si>
-  <si>
     <t>funktional/nicht-funktional?</t>
   </si>
   <si>
-    <t>Die Anwendung ermöglicht einen Login über die E-Mail Addresse</t>
-  </si>
-  <si>
     <t>Benutzer authentifizieren</t>
   </si>
   <si>
-    <t>Es soll die Möglichkeit geben, dass ich sich der Benutzer über seinen Google+ Account authentifizieren kann.</t>
-  </si>
-  <si>
-    <t>Es soll die Möglichkeit geben, dass ich sich der Benutzer über seinen Facebook Account authentifizieren kann.</t>
-  </si>
-  <si>
-    <t>Es soll die Möglichkeit geben, dass ich sich der Benutzer über seine E-Mail Adresse authentifizieren kann.</t>
-  </si>
-  <si>
-    <t>Der Benutzer soll einen Account erstellen und dort die persönlichen Daten angeben, die für einen Ausleiher relevant sind.</t>
-  </si>
-  <si>
     <t>Nach einer bestimmten anzahl an Beschwerden gegenüber einer Person, kann diese für einen Bestimmten Zeitraum gesperrt werden</t>
   </si>
   <si>
@@ -452,6 +292,213 @@
   </si>
   <si>
     <t>Nicht legitime Produkte kann ein Administrator löschen.</t>
+  </si>
+  <si>
+    <t>Produkte zum Verleih freigeben</t>
+  </si>
+  <si>
+    <t>Verfügbaren Produkte können ausgeliehen werden</t>
+  </si>
+  <si>
+    <t>Produkt in eine Kategorie (z.B. Kleidung) einordnen</t>
+  </si>
+  <si>
+    <t>Nach einem bestimmten Produkt kann gesucht werden</t>
+  </si>
+  <si>
+    <t>Als Benutzer kann ich aus einer vorgegebenen Liste von Kategorien eine Kategorie auswählen, die zu meinem Produkt, das verliehen wird, passt.</t>
+  </si>
+  <si>
+    <t>Als Benutzer kann ich Produkte zum Verleih anbieten. Ich kann  meine Produkte  beschreiben und eine Ausleihdauer bestimmen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mängel, die ein Produkt hat, können in einem extra Feld eingegeben werden. </t>
+  </si>
+  <si>
+    <t>Als Benutzer, dem das Produkt gehört, kann ich die Mängel meines Produktes eingeben.</t>
+  </si>
+  <si>
+    <t>Eine Kaution, die für ein Produkt verlangt wird, kann in einem extra Feld eingegeben werden.</t>
+  </si>
+  <si>
+    <t>Als Benutzer kann ich für mein Produkt eine Kaution, in von mir bestimmter Höhe, eingeben.</t>
+  </si>
+  <si>
+    <t>Standort, an dem das Produkt abgeholt oder zurück gebracht werden kann, kann eingegeben werden.</t>
+  </si>
+  <si>
+    <t>Zu jedem auszuleihenden Produkt ein Bild hinzufügen.</t>
+  </si>
+  <si>
+    <t>Produkt entfernen</t>
+  </si>
+  <si>
+    <t>Als Benutzer kann ich jedem Produkt, das ich verleihe, ein oder mehrere Bilder hinzufügen, um den anderen Benutzern eine bessere Vorstellung des Produktes zu ermöglichen.</t>
+  </si>
+  <si>
+    <t>Produkte die man nicht mehr verleihen möchte entfernen</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich Produkte, die ich zum Verlieh anbiete, auch wieder entfernen können.</t>
+  </si>
+  <si>
+    <t>Als Benutzer kann ich den Name des Produktes, das ich ausleihen möchte, angeben und dann danach Suchen. Produkte mit ähnlichen Namen werden darauf hin angezeigt.</t>
+  </si>
+  <si>
+    <t>Produkte markieren, um sie später wieder zu finden.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich mir in bestimmten Situationen Produkte merken, um sie später einfach wieder zu finden.</t>
+  </si>
+  <si>
+    <t>Suche nach Artikeln in einem bestimmten Umkreis</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich bei der Suche nur Produkte in einem bestimmten Umkreis von meinem Standort aus angezeigt bekommen.</t>
+  </si>
+  <si>
+    <t>Der Standort des Ausleiher wird durch Geo Location lokaliziert.</t>
+  </si>
+  <si>
+    <t>Als Benutzer kann ich den Standort eingeben, an dem mein Produkt abgeholt bzw. zurück gebracht werden kann.</t>
+  </si>
+  <si>
+    <t>Als ausleihender Benutzer möchte ich, dass mein Standort über Geo Location bestimt wird, um Produkte in der Nähe meines Standortes zu finden</t>
+  </si>
+  <si>
+    <t>Informationen anzeigen</t>
+  </si>
+  <si>
+    <t>Kurzinformationen anzeigen</t>
+  </si>
+  <si>
+    <t>Die Kurzinformationen der Produkte anzeigen.</t>
+  </si>
+  <si>
+    <t>Alle Informationen des Produktes anzeigen</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich alle Informationen eines Produktes angezeigt bekommen.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich eine Übersicht über die Kurzinformationen der Produkte angezeigt bekommen.</t>
+  </si>
+  <si>
+    <t>Anzeige der Restzeit bis das Produkt wieder verfügbar ist</t>
+  </si>
+  <si>
+    <t>Als ausleihender Benutzer möchte ich eine Restzeitanzeige um zu wissen wann ein Gegendstand wieder zum Verleih verfügbar ist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Benutzer kann ich eine Ausleihanfrage zu einm einem verfügbaren Produkt stellen. Der verleihende Benutzer bekommt darauf hin eine Anfrage, dass diese Person dieses Produkt ausleihen möchte. Der Ausleiher kann die Anfrage annehmen oder ablehnen. Bei positiver bestätigung bekommt der ausleihende Benutzer die Daten des verleihenden Benutzers. </t>
+  </si>
+  <si>
+    <t>Anzeige ob das  gewünschteProdukt verfügbar ist oder nicht</t>
+  </si>
+  <si>
+    <t>Als ausleihender Benutzer möchte ich eine Statusanzeige, um zu erkennen, ob das gewünschte Produkt verfügbar ist oder nicht. Der Status wird automatisch beim Verleih und nach dem Ablauf der Ausleihdauer aktualisiert.</t>
+  </si>
+  <si>
+    <t>Der Benutzer bekommt Benachrichtigungen über die Statusänderung von Produkten auf seiner Merkliste.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich benachrichtigt werden, wenn die Produkte, die ich auf meiner Merkliste habe, wieder verfügbar sind.</t>
+  </si>
+  <si>
+    <t>Als ausleihender Benutzer möchte ich Benachrichtigt werden, wenn ein verleihender Benutzer meine Ausleihanfrage akzeptiert bzw. ablehnt.</t>
+  </si>
+  <si>
+    <t>Der ausleihende Benutzer wird über das Ergebnis seiner Ausleihanfrage informiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei Fehlverhalten von Benutzern wird dieser Benutzer ermahnt und darüber informiert. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Administrator möchte ich Benutzer über ihre Ermahnung bei einem Fehlverhalten benachrichtigen. </t>
+  </si>
+  <si>
+    <t>Aktionspunkte sind für den Benutzer sichtbar</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich meine Aktionspunkte angezeigt bekommen.</t>
+  </si>
+  <si>
+    <t>Als Benutzer kann ich den Namen eines anderen Benutzers angeben und anschließend danach suchen. Benutzer mit ähnlichen Namen werden angezeigt. Bei Auswahl eines Benutzer, wird das Profil angezeigt.</t>
+  </si>
+  <si>
+    <t>Benutzerprofil eines Benutzer anzeigen</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich Informationen über einen anderen Benutzer angezeigt bekommen. Dafür kann ich mir das Benutzerprofil des Benutzers anschauen.</t>
+  </si>
+  <si>
+    <t>Bei erhalt einer Nachricht wird der Benutzer benachrichtig</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich benachrichtig werden, wenn ein Benutzer mirr eine neue Nachricht geschrieben hat.</t>
+  </si>
+  <si>
+    <t>Als verleihender und ausleihender Benutzer möchten wir Nachrichten untereinander austauschen um uns absprechen zu können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Benutzer möchte ich andere Benutzer bezüglich der verlässlichkeit und dem Ablauf der Transaktion bewerten können. </t>
+  </si>
+  <si>
+    <t>Benutzer melden die die Verhaltensrichtlinien nicht eingehalten zu haben</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich Benutzer melden können, um im Falle eines Verstoßes gegen den Verhaltenskodex diesen Nutzer bestrafen zu lassen, damit alle ein positives Erlebnis mit der Anwendung haben</t>
+  </si>
+  <si>
+    <t>Unangemessene Produkte an die Administratoren zur Überprüfung melden</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich Produkte melden können, die illegal oder sinnlos sind</t>
+  </si>
+  <si>
+    <t>Daten des Benutzers können verwaltet werden</t>
+  </si>
+  <si>
+    <t>Allgemeine Einstelungen der Endanwendung können vorgenommen werden</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich meine Daten in meinem Profil verwalten können.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich Einstellungen an der Endanwendung vornhemn können.</t>
+  </si>
+  <si>
+    <t>Persönliche Informationen eines Benutzers angeben</t>
+  </si>
+  <si>
+    <t>Als Betreiber will ich, dass die Benutzer einen Account erstellen und dort ihre persönlichen Daten angeben, die für die Endanwendung notwendig sind.</t>
+  </si>
+  <si>
+    <t>Die Endanwendung ermöglicht die Authentifizierung mit einem Facebook-Account</t>
+  </si>
+  <si>
+    <t>Die Endanwendung ermöglicht die Authentifizierung mit einem Google-Account</t>
+  </si>
+  <si>
+    <t>Authentifizierung über Facebook</t>
+  </si>
+  <si>
+    <t>Authentifizierung über Google+</t>
+  </si>
+  <si>
+    <t>Als Betreiber möchte ich die Möglichkeit schaffen, dass sich die Benutzer über seinen Google+ Account authentifizieren könen.</t>
+  </si>
+  <si>
+    <t>Als Betreiber möchte ich die Möglichkeit schaffen, dass sich die Benutzer über ihren Facebook Account authentifizieren können.</t>
+  </si>
+  <si>
+    <t>Als Betreiber möchte ich die Möglichkeit schaffen, dass sich die Benutzer über ihre E-Mail Adresse authentifizieren können.</t>
+  </si>
+  <si>
+    <t>Authentifizierung über Email</t>
+  </si>
+  <si>
+    <t>Die Endanwendung ermöglicht eine Authentifizierung über die E-Mail Addresse</t>
   </si>
 </sst>
 </file>
@@ -588,10 +635,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -615,14 +662,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -660,9 +710,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,7 +747,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,7 +782,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -906,49 +956,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="67" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="66.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -960,134 +1008,134 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="F7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1096,100 +1144,92 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>4</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1198,123 +1238,131 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
+    <row r="17" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>79</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>81</v>
+        <v>115</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1324,7 +1372,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -1336,69 +1384,79 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="F28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+      <c r="F29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
       <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1408,7 +1466,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
@@ -1420,54 +1478,54 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1476,52 +1534,56 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+    <row r="37" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1530,38 +1592,38 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+    <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>97</v>
-      </c>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1570,56 +1632,56 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>102</v>
+      <c r="F45" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>100</v>
-      </c>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1628,48 +1690,56 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+    <row r="48" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="F49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1678,94 +1748,92 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
+    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>137</v>
+        <v>153</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
+    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>134</v>
+        <v>158</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>61</v>
-      </c>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1774,74 +1842,74 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="F58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="5" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="5" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>107</v>
-      </c>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1850,38 +1918,38 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+    <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="F63" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>61</v>
-      </c>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
+    <row r="65" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1890,38 +1958,38 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+    <row r="66" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="F66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="75" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>64</v>
-      </c>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -1930,174 +1998,166 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+    <row r="69" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="F69" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="5" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="135" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>75</v>
-      </c>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
+    <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
+    <row r="73" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="F73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" s="3"/>
+    <row r="77" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2106,11 +2166,11 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="3"/>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2118,50 +2178,36 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="3" t="s">
-        <v>55</v>
-      </c>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="H82" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A77:A79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Anforderungen_ueberarbeitet.xlsx
+++ b/Anforderungen_ueberarbeitet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
   <si>
     <t>Produkt verleihen</t>
   </si>
@@ -210,48 +210,21 @@
     <t>Zeigt die AGB</t>
   </si>
   <si>
-    <t>Als Betreiber möchte ich, dass Nutzer die AGB einsehen können, um mit dem deutschen Getz konform zu sein.</t>
-  </si>
-  <si>
     <t>must be</t>
   </si>
   <si>
     <t>Grundlegende Richtlinien, an die sich die Nutzer zu halten haben um für alle Mitglieder ein positives Nutzungserlebnis zu garantieren</t>
   </si>
   <si>
-    <t>Als Betreiber möchte ich einen Verhalenskodex für die Nutzer, um diesen eine Positive Nutzungserfahrung mit der Anwendung zu bieten.</t>
-  </si>
-  <si>
     <t>Rechtliche Absicherung des Entwicklerteams und der Betreiber im Haftungsfall</t>
   </si>
   <si>
-    <t>Als Betreiber möchte ich einen Haftungsausschluss, um mich gegen rechtliche Klagen von Nutzern im Bezug auf die Anwendung abzusichern.</t>
-  </si>
-  <si>
     <t>Das Ausleihverhältnis soll gewährleisten, das jeder etwas der Community zum ausleihen anbietet, und nicht nur von andere etwas ausleiht.</t>
   </si>
   <si>
-    <t>Als Nutzer möchte ich, dass alle etwas ausleihen und verleihen, damit auch ich davon profitieren kann.</t>
-  </si>
-  <si>
     <t>Bei der Big-Date-Auswertung sollen zu erst Daten von den Benutzer gesammelt werden, um diesen anschließend gezielt Werbung zu zeigen, welche für sie interessant sein könnte. Darüber soll die Endanwendung, sowie der Implementierungsaufwand finanziert werden.</t>
   </si>
   <si>
-    <t>Als Nutzer möchte ich, dass mir nur Werbung gezeigt wird, die mich interessiert.</t>
-  </si>
-  <si>
-    <t>Ein premiumkonto ermöglicht es dem Nutzer die Endanwenugn frei von Werbung zu nutzen. Im Fall einer App würde das beispielsweise heißen, einen Betrag beim download zu zahlen. Bei einer Webseite müsste man sich übe rien Premiumkonto anmeldung und ebenfalls eine entsprechende Summe zahlen.</t>
-  </si>
-  <si>
-    <t>Als Nutzer möchte ich, dass wenn ich ein Premiumkonto habe, keine Werbung mehr sehe und von allen Features der Endanwenugn profitieren kann, ohne Einschränkungen.</t>
-  </si>
-  <si>
-    <t>Dem Nutzer soll es ermöglicht werden, die Oberfläche der Anwendung in unterschiedlichen Sprachen, je nach Vorliebe an zu sehen.</t>
-  </si>
-  <si>
-    <t>Als Nutzer möchte ich, dass ich die Sprache in der die Oberfläche angezeigt wird frei wählbar ist.</t>
-  </si>
-  <si>
     <t>Kategorisierung eingeben</t>
   </si>
   <si>
@@ -270,24 +243,12 @@
     <t>Benutzer authentifizieren</t>
   </si>
   <si>
-    <t>Nach einer bestimmten anzahl an Beschwerden gegenüber einer Person, kann diese für einen Bestimmten Zeitraum gesperrt werden</t>
-  </si>
-  <si>
     <t>Bei zu häufigem Regelverstoß kann ein Benutzer gelöscht werden.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei einem Fehlverhalten eines Benutzers, kann dieser Benutzer gemeldet werden. Bei einer häufung von kleinen Regelerstößen oder bei größeren Regelvertößen wird der Benutzer temporär gesperrt. </t>
-  </si>
-  <si>
-    <t>Wenn sich ein Benutzer trotz meherer Sperren sein verhalten nicht bessert, wird dieser Benutzer gelöscht</t>
-  </si>
-  <si>
     <t>Nach einer bestimmten anzahl an Beschwerden gegenüber einem Produkt, kann dieses Produkt gesperrt werden.</t>
   </si>
   <si>
-    <t>Nicht legitime Produkte, die von Benuter gemeldet wurden werden gesperrt und sind somit für die Benutzer nicht mehr sichtbar. Der Benuter der das gesperrte Produkt verleiht, wird aufgefordert, das Produkt zu Löschen.</t>
-  </si>
-  <si>
     <t>Sollte ein Benutzer trotz Aufforderung das Produkt nicht löschen, kann der Administator das Produkt löschen.</t>
   </si>
   <si>
@@ -450,6 +411,24 @@
     <t>Als Benutzer möchte ich Benutzer melden können, um im Falle eines Verstoßes gegen den Verhaltenskodex diesen Nutzer bestrafen zu lassen, damit alle ein positives Erlebnis mit der Anwendung haben</t>
   </si>
   <si>
+    <t>Als Betreiber möchte ich einen Haftungsausschluss, um mich gegen rechtliche Klagen von Benutzern im Bezug auf die Anwendung abzusichern.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich, dass alle etwas ausleihen und verleihen, damit auch ich davon profitieren kann.</t>
+  </si>
+  <si>
+    <t>Dem Benutzer soll es ermöglicht werden, die Oberfläche der Anwendung in unterschiedlichen Sprachen, je nach Vorliebe an zu sehen.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich, dass ich die Sprache in der die Oberfläche angezeigt wird frei wählbar ist.</t>
+  </si>
+  <si>
+    <t>Ein premiumkonto ermöglicht es dem Benutzer die Endanwenugn frei von Werbung zu nutzen. Im Fall einer App würde das beispielsweise heißen, einen Betrag beim download zu zahlen. Bei einer Webseite müsste man sich übe rien Premiumkonto anmeldung und ebenfalls eine entsprechende Summe zahlen.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich, dass wenn ich ein Premiumkonto habe, keine Werbung mehr sehe und von allen Features der Endanwenugn profitieren kann, ohne Einschränkungen.</t>
+  </si>
+  <si>
     <t>Unangemessene Produkte an die Administratoren zur Überprüfung melden</t>
   </si>
   <si>
@@ -499,6 +478,36 @@
   </si>
   <si>
     <t>Die Endanwendung ermöglicht eine Authentifizierung über die E-Mail Addresse</t>
+  </si>
+  <si>
+    <t>Als Betreiber möchte ich, dass die Benutzer die AGBs einsehen können.</t>
+  </si>
+  <si>
+    <t>Als Betreiber möchte ich einen Verhalenskodex für die Benutzer, um diesen eine Positive Benutzungserfahrung mit der Anwendung zu bieten.</t>
+  </si>
+  <si>
+    <t>Als Betreiber möchte ich Big-Data an andere Firmen verkaufen, um so Geld zu verdienen.</t>
+  </si>
+  <si>
+    <t>Nach einer bestimmten anzahl an Beschwerden gegenüber einem Benutzer, kann dieser für einen Bestimmten Zeitraum gesperrt werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Administrator möchte ich bei häufigen Fehlverhalten eines Benutzers, diesen Benutzer temporär sperren. </t>
+  </si>
+  <si>
+    <t>Als Administrator möchte ich einen Benutzer, der sich trotz mehrerer Sperren sein Verhalten nicht bessert, löschen können.</t>
+  </si>
+  <si>
+    <t>Als Administrator möchte ich nicht legitime Produkte, die von Benutzern gemeldet wurden, sperren. Der Benuter der das gesperrte Produkt verleiht, wird aufgefordert, das Produkt zu löschen.</t>
+  </si>
+  <si>
+    <t>must-have</t>
+  </si>
+  <si>
+    <t>Updates können eingespielt werden.</t>
+  </si>
+  <si>
+    <t>Als Betreiber möchte ich die Endanwendung in Form von Updates weiterentwickeln können.</t>
   </si>
 </sst>
 </file>
@@ -958,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -986,7 +995,7 @@
         <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
@@ -1019,17 +1028,17 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>55</v>
@@ -1037,17 +1046,17 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>59</v>
@@ -1055,17 +1064,17 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>55</v>
@@ -1073,17 +1082,17 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>54</v>
@@ -1091,10 +1100,10 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1109,17 +1118,17 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="11" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>55</v>
@@ -1127,10 +1136,10 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1167,10 +1176,10 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -1185,10 +1194,10 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -1203,10 +1212,10 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -1221,10 +1230,10 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1253,7 +1262,7 @@
     <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>54</v>
@@ -1261,17 +1270,17 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>54</v>
@@ -1279,10 +1288,10 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -1297,10 +1306,10 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1315,10 +1324,10 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -1345,10 +1354,10 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -1395,10 +1404,10 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -1413,10 +1422,10 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1431,10 +1440,10 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -1449,10 +1458,10 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -1492,7 +1501,7 @@
         <v>58</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1505,10 +1514,10 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -1545,10 +1554,10 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -1566,7 +1575,7 @@
         <v>60</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -1606,7 +1615,7 @@
         <v>61</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H41" s="3"/>
     </row>
@@ -1643,10 +1652,10 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -1661,10 +1670,10 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -1701,10 +1710,10 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -1719,10 +1728,10 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H49" s="3"/>
     </row>
@@ -1738,7 +1747,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1759,17 +1768,17 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>59</v>
@@ -1777,17 +1786,17 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>55</v>
@@ -1795,17 +1804,17 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>54</v>
@@ -1813,10 +1822,10 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -1842,7 +1851,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
         <v>36</v>
@@ -1855,8 +1864,8 @@
       <c r="F58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>63</v>
+      <c r="G58" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="H58" s="3"/>
     </row>
@@ -1871,10 +1880,10 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -1884,15 +1893,15 @@
         <v>38</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -1929,10 +1938,10 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -1958,7 +1967,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="3" t="s">
         <v>41</v>
@@ -1968,11 +1977,11 @@
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>76</v>
+      <c r="F66" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="H66" s="3"/>
     </row>
@@ -2008,11 +2017,11 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>74</v>
+      <c r="F69" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="H69" s="3"/>
     </row>
@@ -2027,10 +2036,10 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="H70" s="3"/>
     </row>
@@ -2067,10 +2076,10 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="H73" s="3"/>
     </row>
@@ -2085,10 +2094,10 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="H74" s="3"/>
     </row>
@@ -2121,10 +2130,10 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="H77" s="3"/>
     </row>
@@ -2137,10 +2146,10 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H78" s="3"/>
     </row>
@@ -2166,16 +2175,22 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">

--- a/Anforderungen_ueberarbeitet.xlsx
+++ b/Anforderungen_ueberarbeitet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihans\Downloads\x-share-master\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="20160" windowHeight="7740"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20160" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -288,9 +283,6 @@
     <t>Standort, an dem das Produkt abgeholt oder zurück gebracht werden kann, kann eingegeben werden.</t>
   </si>
   <si>
-    <t>Zu jedem auszuleihenden Produkt ein Bild hinzufügen.</t>
-  </si>
-  <si>
     <t>Produkt entfernen</t>
   </si>
   <si>
@@ -303,9 +295,6 @@
     <t>Als Benutzer möchte ich Produkte, die ich zum Verlieh anbiete, auch wieder entfernen können.</t>
   </si>
   <si>
-    <t>Als Benutzer kann ich den Name des Produktes, das ich ausleihen möchte, angeben und dann danach Suchen. Produkte mit ähnlichen Namen werden darauf hin angezeigt.</t>
-  </si>
-  <si>
     <t>Produkte markieren, um sie später wieder zu finden.</t>
   </si>
   <si>
@@ -348,9 +337,6 @@
     <t>Anzeige der Restzeit bis das Produkt wieder verfügbar ist</t>
   </si>
   <si>
-    <t>Als ausleihender Benutzer möchte ich eine Restzeitanzeige um zu wissen wann ein Gegendstand wieder zum Verleih verfügbar ist.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Als Benutzer kann ich eine Ausleihanfrage zu einm einem verfügbaren Produkt stellen. Der verleihende Benutzer bekommt darauf hin eine Anfrage, dass diese Person dieses Produkt ausleihen möchte. Der Ausleiher kann die Anfrage annehmen oder ablehnen. Bei positiver bestätigung bekommt der ausleihende Benutzer die Daten des verleihenden Benutzers. </t>
   </si>
   <si>
@@ -366,9 +352,6 @@
     <t>Als Benutzer möchte ich benachrichtigt werden, wenn die Produkte, die ich auf meiner Merkliste habe, wieder verfügbar sind.</t>
   </si>
   <si>
-    <t>Als ausleihender Benutzer möchte ich Benachrichtigt werden, wenn ein verleihender Benutzer meine Ausleihanfrage akzeptiert bzw. ablehnt.</t>
-  </si>
-  <si>
     <t>Der ausleihende Benutzer wird über das Ergebnis seiner Ausleihanfrage informiert</t>
   </si>
   <si>
@@ -402,9 +385,6 @@
     <t>Als verleihender und ausleihender Benutzer möchten wir Nachrichten untereinander austauschen um uns absprechen zu können.</t>
   </si>
   <si>
-    <t xml:space="preserve">Als Benutzer möchte ich andere Benutzer bezüglich der verlässlichkeit und dem Ablauf der Transaktion bewerten können. </t>
-  </si>
-  <si>
     <t>Benutzer melden die die Verhaltensrichtlinien nicht eingehalten zu haben</t>
   </si>
   <si>
@@ -414,9 +394,6 @@
     <t>Als Betreiber möchte ich einen Haftungsausschluss, um mich gegen rechtliche Klagen von Benutzern im Bezug auf die Anwendung abzusichern.</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich, dass alle etwas ausleihen und verleihen, damit auch ich davon profitieren kann.</t>
-  </si>
-  <si>
     <t>Dem Benutzer soll es ermöglicht werden, die Oberfläche der Anwendung in unterschiedlichen Sprachen, je nach Vorliebe an zu sehen.</t>
   </si>
   <si>
@@ -432,9 +409,6 @@
     <t>Unangemessene Produkte an die Administratoren zur Überprüfung melden</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich Produkte melden können, die illegal oder sinnlos sind</t>
-  </si>
-  <si>
     <t>Daten des Benutzers können verwaltet werden</t>
   </si>
   <si>
@@ -444,9 +418,6 @@
     <t>Als Benutzer möchte ich meine Daten in meinem Profil verwalten können.</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich Einstellungen an der Endanwendung vornhemn können.</t>
-  </si>
-  <si>
     <t>Persönliche Informationen eines Benutzers angeben</t>
   </si>
   <si>
@@ -498,9 +469,6 @@
     <t>Als Administrator möchte ich einen Benutzer, der sich trotz mehrerer Sperren sein Verhalten nicht bessert, löschen können.</t>
   </si>
   <si>
-    <t>Als Administrator möchte ich nicht legitime Produkte, die von Benutzern gemeldet wurden, sperren. Der Benuter der das gesperrte Produkt verleiht, wird aufgefordert, das Produkt zu löschen.</t>
-  </si>
-  <si>
     <t>must-have</t>
   </si>
   <si>
@@ -508,13 +476,40 @@
   </si>
   <si>
     <t>Als Betreiber möchte ich die Endanwendung in Form von Updates weiterentwickeln können.</t>
+  </si>
+  <si>
+    <t>Zu jedem auszuleihenden Produkt ein Bild davon hinzufügen.</t>
+  </si>
+  <si>
+    <t>Als Benutzer kann ich den Name des Produktes, das ich ausleihen möchte, angeben und dann danach suchen. Produkte mit ähnlichen Namen werden darauf hin angezeigt.</t>
+  </si>
+  <si>
+    <t>Als ausleihender Benutzer möchte ich eine Restzeitanzeige um zu wissen wann das Produkt wieder zum Verleih verfügbar ist.</t>
+  </si>
+  <si>
+    <t>Als ausleihender Benutzer möchte ich benachrichtigt werden, wenn ein verleihender Benutzer meine Ausleihanfrage akzeptiert bzw. ablehnt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Benutzer möchte ich andere Benutzer bezüglich der Verlässlichkeit und dem Ablauf der Transaktion bewerten können. </t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich Produkte melden können, die illegal oder sinnlos sind.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich Einstellungen an der Endanwendung vornehmen können.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich, dass alle etwas ausleihen und verleihen, damit jeder Benutzer davon profitieren kann.</t>
+  </si>
+  <si>
+    <t>Als Administrator möchte ich nicht legitime Produkte, die von Benutzern gemeldet wurden, sperren. Der Benuter der das gesperrte Produkt verleiht, wird aufgefordert das Produkt zu löschen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -641,13 +636,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -655,9 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -679,9 +674,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -719,9 +714,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,10 +748,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,10 +782,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -964,26 +957,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="38.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="66.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="2"/>
+    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="66.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1005,8 +998,8 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
@@ -1017,8 +1010,8 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:8" ht="30">
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1035,8 +1028,8 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
@@ -1053,8 +1046,8 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>69</v>
       </c>
@@ -1071,8 +1064,8 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1089,8 +1082,8 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:8" ht="38.25">
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>71</v>
       </c>
@@ -1103,12 +1096,12 @@
         <v>88</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:8" ht="45">
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1117,18 +1110,18 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>55</v>
@@ -1136,14 +1129,14 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1153,8 +1146,8 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3"/>
@@ -1165,8 +1158,8 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:8" ht="45">
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1179,12 +1172,12 @@
         <v>81</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1194,15 +1187,15 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1212,14 +1205,14 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45">
       <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -1229,15 +1222,15 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1247,8 +1240,8 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3"/>
@@ -1259,10 +1252,10 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:8" ht="25.5">
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>54</v>
@@ -1270,17 +1263,17 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:8" ht="25.5">
+      <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>54</v>
@@ -1288,15 +1281,15 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:8" ht="60">
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1306,14 +1299,14 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" s="8"/>
       <c r="B21" s="3" t="s">
         <v>18</v>
@@ -1324,14 +1317,14 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1341,8 +1334,8 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:8" ht="92.25" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1357,12 +1350,12 @@
         <v>79</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:8" ht="15">
+      <c r="A24" s="9"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="3"/>
@@ -1371,7 +1364,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1381,8 +1374,8 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="3"/>
@@ -1393,8 +1386,8 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:8" ht="60">
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
@@ -1404,15 +1397,15 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:8" ht="38.25">
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
@@ -1422,15 +1415,15 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:8" ht="38.25">
+      <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
@@ -1440,14 +1433,14 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="25.5">
       <c r="A30" s="8"/>
       <c r="B30" s="3" t="s">
         <v>26</v>
@@ -1458,14 +1451,14 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1475,8 +1468,8 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="3"/>
@@ -1487,8 +1480,8 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1501,11 +1494,11 @@
         <v>58</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="39.75" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="3" t="s">
         <v>28</v>
@@ -1514,14 +1507,14 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1531,8 +1524,8 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="3"/>
@@ -1543,8 +1536,8 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:8" ht="25.5">
+      <c r="A37" s="9"/>
       <c r="B37" s="3" t="s">
         <v>22</v>
       </c>
@@ -1554,14 +1547,14 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="43.5" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="3" t="s">
         <v>29</v>
@@ -1575,11 +1568,11 @@
         <v>60</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1589,8 +1582,8 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="3"/>
@@ -1601,7 +1594,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="45">
       <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
         <v>30</v>
@@ -1611,15 +1604,15 @@
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>127</v>
+      <c r="G41" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1629,8 +1622,8 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="3"/>
@@ -1641,8 +1634,8 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:8" ht="45">
+      <c r="A44" s="9"/>
       <c r="B44" s="3" t="s">
         <v>31</v>
       </c>
@@ -1651,15 +1644,15 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>129</v>
+      <c r="F44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="45">
       <c r="A45" s="8"/>
       <c r="B45" s="3" t="s">
         <v>32</v>
@@ -1669,15 +1662,15 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>137</v>
+      <c r="F45" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1687,8 +1680,8 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="3"/>
@@ -1699,8 +1692,8 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:8" ht="25.5">
+      <c r="A48" s="9"/>
       <c r="B48" s="3" t="s">
         <v>33</v>
       </c>
@@ -1710,14 +1703,14 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="38.25">
       <c r="A49" s="8"/>
       <c r="B49" s="3" t="s">
         <v>34</v>
@@ -1728,14 +1721,14 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1745,8 +1738,8 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B51" s="3"/>
@@ -1757,8 +1750,8 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+    <row r="52" spans="1:8" ht="45">
+      <c r="A52" s="9"/>
       <c r="B52" s="3" t="s">
         <v>35</v>
       </c>
@@ -1767,18 +1760,18 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>143</v>
+      <c r="F52" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+    <row r="53" spans="1:8" ht="45">
+      <c r="A53" s="9"/>
       <c r="B53" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>59</v>
@@ -1786,17 +1779,17 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+    <row r="54" spans="1:8" ht="45">
+      <c r="A54" s="9"/>
       <c r="B54" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>55</v>
@@ -1804,17 +1797,17 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="38.25">
       <c r="A55" s="8"/>
       <c r="B55" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>54</v>
@@ -1822,14 +1815,14 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1839,8 +1832,8 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="3"/>
@@ -1851,8 +1844,8 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+    <row r="58" spans="1:8" ht="27" customHeight="1">
+      <c r="A58" s="9"/>
       <c r="B58" s="3" t="s">
         <v>36</v>
       </c>
@@ -1864,13 +1857,13 @@
       <c r="F58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>153</v>
+      <c r="G58" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+    <row r="59" spans="1:8" ht="45">
+      <c r="A59" s="9"/>
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -1882,12 +1875,12 @@
       <c r="F59" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>130</v>
+      <c r="G59" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="60">
       <c r="A60" s="8"/>
       <c r="B60" s="3" t="s">
         <v>38</v>
@@ -1900,12 +1893,12 @@
       <c r="F60" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G60" s="11" t="s">
-        <v>154</v>
+      <c r="G60" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1915,8 +1908,8 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="3"/>
@@ -1927,7 +1920,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="75">
       <c r="A63" s="8"/>
       <c r="B63" s="3" t="s">
         <v>39</v>
@@ -1940,12 +1933,12 @@
       <c r="F63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>131</v>
+      <c r="G63" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1955,8 +1948,8 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A65" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="3"/>
@@ -1967,7 +1960,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="80.45" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="3" t="s">
         <v>41</v>
@@ -1977,15 +1970,15 @@
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>133</v>
+      <c r="F66" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1995,8 +1988,8 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="3"/>
@@ -2007,8 +2000,8 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+    <row r="69" spans="1:8" ht="150">
+      <c r="A69" s="9"/>
       <c r="B69" s="3" t="s">
         <v>40</v>
       </c>
@@ -2017,15 +2010,15 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>135</v>
+      <c r="F69" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="135">
       <c r="A70" s="8"/>
       <c r="B70" s="3" t="s">
         <v>42</v>
@@ -2038,12 +2031,12 @@
       <c r="F70" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>155</v>
+      <c r="G70" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2053,8 +2046,8 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:8" ht="15">
+      <c r="A72" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B72" s="3"/>
@@ -2065,8 +2058,8 @@
       <c r="G72" s="4"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+    <row r="73" spans="1:8" ht="51">
+      <c r="A73" s="9"/>
       <c r="B73" s="3" t="s">
         <v>43</v>
       </c>
@@ -2076,14 +2069,14 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="25.5">
       <c r="A74" s="8"/>
       <c r="B74" s="3" t="s">
         <v>44</v>
@@ -2097,11 +2090,11 @@
         <v>74</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2111,8 +2104,8 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:8">
+      <c r="A76" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B76" s="3"/>
@@ -2121,8 +2114,8 @@
       <c r="E76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+    <row r="77" spans="1:8" ht="38.25">
+      <c r="A77" s="9"/>
       <c r="B77" s="3" t="s">
         <v>47</v>
       </c>
@@ -2133,11 +2126,11 @@
         <v>75</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="25.5">
       <c r="A78" s="8"/>
       <c r="B78" s="3" t="s">
         <v>45</v>
@@ -2153,7 +2146,7 @@
       </c>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2163,8 +2156,8 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:8">
+      <c r="A80" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="3"/>
@@ -2175,25 +2168,25 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="25.5">
       <c r="A81" s="8"/>
       <c r="B81" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2205,6 +2198,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A40:A41"/>
@@ -2217,12 +2216,6 @@
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
